--- a/KeyWordFramework/TestData/126邮箱的测试用例.xlsx
+++ b/KeyWordFramework/TestData/126邮箱的测试用例.xlsx
@@ -3,12 +3,11 @@
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <s:workbookPr codeName="ThisWorkbook"/>
   <s:bookViews>
-    <s:workbookView activeTab="0"/>
+    <s:workbookView activeTab="1"/>
   </s:bookViews>
   <s:sheets>
-    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <s:sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <s:sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <s:sheet name="login" sheetId="1" r:id="rId1"/>
+    <s:sheet name="add" sheetId="2" r:id="rId2"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>步骤序号</t>
   </si>
@@ -57,7 +56,7 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>3.92s</t>
+    <t>3.77s</t>
   </si>
   <si>
     <t>成功</t>
@@ -72,131 +71,194 @@
     <t>http://mail.126.com</t>
   </si>
   <si>
-    <t>1.87s</t>
-  </si>
-  <si>
-    <t>暂停3秒</t>
+    <t>2.59s</t>
+  </si>
+  <si>
+    <t>暂停2秒</t>
   </si>
   <si>
     <t>pause</t>
   </si>
   <si>
+    <t>2.00s</t>
+  </si>
+  <si>
+    <t>进入登录框的frame</t>
+  </si>
+  <si>
+    <t>enter_frame</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>x-URS-iframe</t>
+  </si>
+  <si>
+    <t>0.09s</t>
+  </si>
+  <si>
+    <t>暂停1秒</t>
+  </si>
+  <si>
+    <t>1.00s</t>
+  </si>
+  <si>
+    <t>输入用户名</t>
+  </si>
+  <si>
+    <t>input_string</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//input[@name='email']</t>
+  </si>
+  <si>
+    <t>yinxunjiang123</t>
+  </si>
+  <si>
+    <t>0.17s</t>
+  </si>
+  <si>
+    <t>输入密码</t>
+  </si>
+  <si>
+    <t>//input[@name='password']</t>
+  </si>
+  <si>
+    <t>gloryroad</t>
+  </si>
+  <si>
+    <t>0.13s</t>
+  </si>
+  <si>
+    <t>点击登录按钮</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>dologin</t>
+  </si>
+  <si>
+    <t>等待3秒，完成登录操作</t>
+  </si>
+  <si>
     <t>3.00s</t>
   </si>
   <si>
-    <t>进入登录框的frame</t>
-  </si>
-  <si>
-    <t>enter_frame</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>x-URS-iframe</t>
-  </si>
-  <si>
-    <t>0.05s</t>
-  </si>
-  <si>
-    <t>暂停2秒</t>
-  </si>
-  <si>
-    <t>2.00s</t>
-  </si>
-  <si>
-    <t>输入用户名</t>
-  </si>
-  <si>
-    <t>input_string</t>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>//input[@name='email']</t>
-  </si>
-  <si>
-    <t>yinxunjiang123</t>
-  </si>
-  <si>
-    <t>0.19s</t>
-  </si>
-  <si>
-    <t>输入密码</t>
-  </si>
-  <si>
-    <t>//input[@name='password']</t>
-  </si>
-  <si>
-    <t>gloryroad</t>
+    <t>断言登录成功</t>
+  </si>
+  <si>
+    <t>assert_word</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>0.01s</t>
+  </si>
+  <si>
+    <t>点击通讯录</t>
+  </si>
+  <si>
+    <t>//div[text()='通讯录']</t>
+  </si>
+  <si>
+    <t>0.12s</t>
+  </si>
+  <si>
+    <t>点击新建联系人</t>
+  </si>
+  <si>
+    <t>//span[text()='新建联系人']</t>
+  </si>
+  <si>
+    <t>6.61s</t>
+  </si>
+  <si>
+    <t>输入姓名</t>
+  </si>
+  <si>
+    <t>//a[@title='编辑详细姓名']/preceding-sibling::div/input</t>
+  </si>
+  <si>
+    <t>我叫刘跃进</t>
   </si>
   <si>
     <t>0.11s</t>
   </si>
   <si>
-    <t>点击登录按钮</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>dologin</t>
-  </si>
-  <si>
-    <t>等待5秒，完成登录操作</t>
-  </si>
-  <si>
-    <t>5.00s</t>
-  </si>
-  <si>
-    <t>断言登录成功</t>
-  </si>
-  <si>
-    <t>assert_word</t>
-  </si>
-  <si>
-    <t>退出qqq</t>
-  </si>
-  <si>
-    <t>关闭浏览器</t>
-  </si>
-  <si>
-    <t>close_browser</t>
-  </si>
-  <si>
-    <t>3.05s</t>
-  </si>
-  <si>
-    <t>1.91s</t>
-  </si>
-  <si>
-    <t>0.03s</t>
+    <t>输入邮箱</t>
+  </si>
+  <si>
+    <t>//*[@id='iaddress_MAIL_wrap']//input</t>
+  </si>
+  <si>
+    <t>helloworld@qq.com</t>
+  </si>
+  <si>
+    <t>0.23s</t>
+  </si>
+  <si>
+    <t>输入手机号</t>
+  </si>
+  <si>
+    <t>//*[@id='iaddress_TEL_wrap']//dd//input</t>
   </si>
   <si>
     <t>0.14s</t>
   </si>
   <si>
-    <t>0.10s</t>
+    <t>添加备注</t>
+  </si>
+  <si>
+    <t>//textarea</t>
+  </si>
+  <si>
+    <t>我是新加的联系人</t>
+  </si>
+  <si>
+    <t>0.21s</t>
+  </si>
+  <si>
+    <t>点击确定按钮</t>
+  </si>
+  <si>
+    <t>//span[.='确 定']</t>
+  </si>
+  <si>
+    <t>断言创建成功</t>
+  </si>
+  <si>
+    <t>刘德华</t>
   </si>
   <si>
     <t>失败</t>
   </si>
   <si>
-    <t>D:\KeyWordFramework\ScreenPictures\ErrorPicture\2017-06-25\21-42-17\.png</t>
+    <t>D:\KeyWordFramework\ScreenPictures\ErrorPicture\2017-06-26\16-35-02.png</t>
   </si>
   <si>
     <t xml:space="preserve">Traceback (most recent call last):
-  File "D:/KeyWordFramework/TestScript/Login.py", line 26, in &lt;module&gt;
+  File "D:/KeyWordFramework/TestScript/TestCase2.py", line 41, in &lt;module&gt;
     exec(command_line)
   File "&lt;string&gt;", line 1, in &lt;module&gt;
-  File "D:\KeyWordFramework\Action\Action.py", line 80, in assert_word
+  File "D:\KeyWordFramework\Action\Action.py", line 85, in assert_word
     raise e
 AssertionError
 </t>
   </si>
   <si>
-    <t>3.04s</t>
+    <t>关闭浏览器</t>
+  </si>
+  <si>
+    <t>close_browser</t>
+  </si>
+  <si>
+    <t>3.07s</t>
   </si>
 </sst>
 </file>
@@ -204,7 +266,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="8">
+    <font>
+      <name val="宋体"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <name val="宋体"/>
       <family val="2"/>
@@ -215,7 +291,7 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF00FF00"/>
+      <color rgb="FF008800"/>
       <sz val="11"/>
     </font>
     <font>
@@ -235,7 +311,7 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="0000FF00"/>
+      <color rgb="00008800"/>
       <sz val="11"/>
     </font>
     <font>
@@ -283,20 +359,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle builtinId="8" name="超链接" xfId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -594,10 +684,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -605,7 +695,7 @@
     <col customWidth="1" max="2" min="2" width="21.25"/>
     <col customWidth="1" max="4" min="3" width="16.5"/>
     <col customWidth="1" max="5" min="5" width="26.75"/>
-    <col customWidth="1" max="6" min="6" width="23.625"/>
+    <col customWidth="1" max="6" min="6" style="5" width="23.625"/>
     <col customWidth="1" max="9" min="9" width="33.625"/>
   </cols>
   <sheetData>
@@ -625,7 +715,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -653,13 +743,13 @@
       </c>
       <c r="D2" s="2" t="n"/>
       <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="2" t="n"/>
@@ -677,13 +767,13 @@
       </c>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="2" t="n"/>
@@ -701,13 +791,13 @@
       </c>
       <c r="D4" s="2" t="n"/>
       <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n">
-        <v>3</v>
+      <c r="F4" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="2" t="n"/>
@@ -729,11 +819,11 @@
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2" t="n"/>
+      <c r="F5" s="4" t="n"/>
       <c r="G5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="2" t="n"/>
@@ -751,13 +841,13 @@
       </c>
       <c r="D6" s="2" t="n"/>
       <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n">
-        <v>2</v>
+      <c r="F6" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="2" t="n"/>
@@ -779,13 +869,13 @@
       <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="2" t="n"/>
@@ -807,13 +897,13 @@
       <c r="E8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="2" t="n"/>
@@ -835,11 +925,11 @@
       <c r="E9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="2" t="n"/>
+      <c r="F9" s="4" t="n"/>
       <c r="G9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="2" t="n"/>
@@ -857,13 +947,13 @@
       </c>
       <c r="D10" s="2" t="n"/>
       <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n">
-        <v>5</v>
+      <c r="F10" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="2" t="n"/>
@@ -881,43 +971,17 @@
       </c>
       <c r="D11" s="2" t="n"/>
       <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="12" spans="1:10">
-      <c r="A12" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
+      <c r="H11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -931,32 +995,392 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="8.5"/>
+    <col customWidth="1" max="2" min="2" width="13.75"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
+    <col customWidth="1" max="4" min="4" width="10.5"/>
+    <col customWidth="1" max="5" min="5" width="55.75"/>
+    <col customWidth="1" max="6" min="6" width="18.75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2" spans="1:10">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="3" spans="1:10">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="4" spans="1:10">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="4" t="n"/>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="5" spans="1:10">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="6" spans="1:10">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="7" spans="1:10">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="8" spans="1:10">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>11000000000</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="9" spans="1:10">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="10" spans="1:10">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="11" spans="1:10">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="12" spans="1:10">
+      <c r="A12" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="13" spans="1:10">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="14" spans="1:10">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>